--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-immunization.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-immunization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="409">
   <si>
     <t>Property</t>
   </si>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>ワクチンを接種したときの記録，あるいは予防接種について患者や医療従事者などが報告した記録。</t>
-  </si>
-  <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1741,16 +1737,16 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>38</v>
@@ -1761,10 +1757,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1775,28 +1771,28 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1846,13 +1842,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1878,10 +1874,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1892,25 +1888,25 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1961,19 +1957,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1993,10 +1989,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2007,28 +2003,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2078,19 +2074,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2110,10 +2106,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2124,7 +2120,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2136,16 +2132,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2171,43 +2167,43 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2227,21 +2223,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2253,16 +2249,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2312,28 +2308,28 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM6" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM6" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>38</v>
@@ -2344,14 +2340,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2370,16 +2366,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2429,7 +2425,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2450,7 +2446,7 @@
         <v>38</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>38</v>
@@ -2461,10 +2457,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2487,13 +2483,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2532,17 +2528,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2554,7 +2550,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2574,13 +2570,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2590,7 +2586,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2602,13 +2598,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2659,7 +2655,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2668,10 +2664,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2691,13 +2687,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2707,7 +2703,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2719,13 +2715,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2776,7 +2772,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2785,10 +2781,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2808,13 +2804,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -2824,7 +2820,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2836,13 +2832,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2893,7 +2889,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2902,10 +2898,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2925,14 +2921,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2945,25 +2941,25 @@
         <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>38</v>
@@ -3012,7 +3008,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3024,7 +3020,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3033,7 +3029,7 @@
         <v>38</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>38</v>
@@ -3044,10 +3040,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3070,13 +3066,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3127,7 +3123,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3139,30 +3135,30 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3170,31 +3166,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="J14" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="J14" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3220,55 +3216,55 @@
         <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Z14" t="s" s="2">
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>38</v>
@@ -3276,10 +3272,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3290,7 +3286,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3302,16 +3298,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3337,52 +3333,52 @@
         <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3393,10 +3389,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3404,31 +3400,31 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3454,64 +3450,64 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3519,28 +3515,28 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3591,31 +3587,31 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>38</v>
@@ -3623,10 +3619,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3637,7 +3633,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -3649,13 +3645,13 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3706,31 +3702,31 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -3738,10 +3734,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3749,31 +3745,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3823,42 +3819,42 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3869,7 +3865,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3881,13 +3877,13 @@
         <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3938,19 +3934,19 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
@@ -3959,10 +3955,10 @@
         <v>38</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -3970,10 +3966,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3984,28 +3980,28 @@
         <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4055,31 +4051,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4087,10 +4083,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4101,7 +4097,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4113,16 +4109,16 @@
         <v>38</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4148,55 +4144,55 @@
         <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4204,10 +4200,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4218,7 +4214,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4230,13 +4226,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4287,31 +4283,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4319,10 +4315,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4333,7 +4329,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4345,13 +4341,13 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4402,42 +4398,42 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4448,7 +4444,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4460,13 +4456,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4517,42 +4513,42 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4563,7 +4559,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4575,13 +4571,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4632,28 +4628,28 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>38</v>
@@ -4664,10 +4660,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4678,7 +4674,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
@@ -4690,13 +4686,13 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4723,66 +4719,66 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Z27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z27" t="s" s="2">
+      <c r="AA27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AA27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4793,7 +4789,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4805,13 +4801,13 @@
         <v>38</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4838,66 +4834,66 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4908,7 +4904,7 @@
         <v>39</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -4920,16 +4916,16 @@
         <v>38</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4979,28 +4975,28 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -5011,10 +5007,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5034,16 +5030,16 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5094,7 +5090,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5106,16 +5102,16 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -5126,10 +5122,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5140,7 +5136,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5152,13 +5148,13 @@
         <v>38</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5209,28 +5205,28 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>38</v>
@@ -5241,14 +5237,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5267,16 +5263,16 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5326,7 +5322,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5338,7 +5334,7 @@
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
@@ -5347,7 +5343,7 @@
         <v>38</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>38</v>
@@ -5358,14 +5354,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5378,25 +5374,25 @@
         <v>38</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N33" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>38</v>
@@ -5445,7 +5441,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5457,7 +5453,7 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
@@ -5466,7 +5462,7 @@
         <v>38</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>38</v>
@@ -5477,10 +5473,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5491,25 +5487,25 @@
         <v>39</v>
       </c>
       <c r="G34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K34" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5536,52 +5532,52 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>38</v>
@@ -5592,10 +5588,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5603,31 +5599,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="K35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5677,31 +5673,31 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
@@ -5709,10 +5705,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5732,16 +5728,16 @@
         <v>38</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5792,7 +5788,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5804,16 +5800,16 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5824,10 +5820,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5850,13 +5846,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5883,14 +5879,14 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5919,16 +5915,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5939,10 +5935,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5965,13 +5961,13 @@
         <v>38</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6022,7 +6018,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6034,16 +6030,16 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -6054,10 +6050,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6068,101 +6064,101 @@
         <v>39</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q39" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="R39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6173,10 +6169,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6199,13 +6195,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6232,14 +6228,14 @@
         <v>38</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6256,7 +6252,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6268,7 +6264,7 @@
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
@@ -6277,7 +6273,7 @@
         <v>38</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>38</v>
@@ -6288,10 +6284,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6314,13 +6310,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6371,7 +6367,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6383,7 +6379,7 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
@@ -6392,7 +6388,7 @@
         <v>38</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6403,10 +6399,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6417,7 +6413,7 @@
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6429,13 +6425,13 @@
         <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6486,28 +6482,28 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6518,14 +6514,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6544,16 +6540,16 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="N43" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6603,7 +6599,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6615,7 +6611,7 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
@@ -6624,7 +6620,7 @@
         <v>38</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>38</v>
@@ -6635,14 +6631,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6655,25 +6651,25 @@
         <v>38</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N44" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6722,7 +6718,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6734,7 +6730,7 @@
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
@@ -6743,7 +6739,7 @@
         <v>38</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6754,10 +6750,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6768,7 +6764,7 @@
         <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6780,13 +6776,13 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6837,28 +6833,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6869,10 +6865,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6883,7 +6879,7 @@
         <v>39</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>38</v>
@@ -6895,13 +6891,13 @@
         <v>38</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6952,19 +6948,19 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
@@ -6973,7 +6969,7 @@
         <v>38</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6984,10 +6980,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6998,7 +6994,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7010,13 +7006,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7067,28 +7063,28 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -7099,10 +7095,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7113,7 +7109,7 @@
         <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7125,13 +7121,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7182,28 +7178,28 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7214,10 +7210,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7240,13 +7236,13 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7273,14 +7269,14 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7297,7 +7293,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7309,16 +7305,16 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>38</v>
@@ -7329,10 +7325,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7343,7 +7339,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7355,13 +7351,13 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7388,14 +7384,14 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
       </c>
@@ -7412,19 +7408,19 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
@@ -7433,7 +7429,7 @@
         <v>38</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
@@ -7444,10 +7440,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7470,16 +7466,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7529,7 +7525,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7541,16 +7537,16 @@
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7561,10 +7557,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7575,7 +7571,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7587,13 +7583,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7644,28 +7640,28 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7676,14 +7672,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7702,16 +7698,16 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7761,7 +7757,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7773,7 +7769,7 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
@@ -7782,7 +7778,7 @@
         <v>38</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7793,14 +7789,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7813,25 +7809,25 @@
         <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N54" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O54" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7880,7 +7876,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7892,7 +7888,7 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
@@ -7901,7 +7897,7 @@
         <v>38</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -7912,10 +7908,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7926,7 +7922,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -7938,13 +7934,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7995,28 +7991,28 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>38</v>
@@ -8027,10 +8023,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8041,7 +8037,7 @@
         <v>39</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>38</v>
@@ -8053,13 +8049,13 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8110,28 +8106,28 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>38</v>
@@ -8142,10 +8138,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8156,7 +8152,7 @@
         <v>39</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>38</v>
@@ -8168,13 +8164,13 @@
         <v>38</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8225,28 +8221,28 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>38</v>
@@ -8257,10 +8253,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8283,13 +8279,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8340,7 +8336,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8352,7 +8348,7 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
@@ -8361,7 +8357,7 @@
         <v>38</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>38</v>
@@ -8372,10 +8368,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8386,7 +8382,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8398,13 +8394,13 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8455,28 +8451,28 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>38</v>
@@ -8487,14 +8483,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8513,16 +8509,16 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8572,7 +8568,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8584,7 +8580,7 @@
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
@@ -8593,7 +8589,7 @@
         <v>38</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>38</v>
@@ -8604,14 +8600,14 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8624,25 +8620,25 @@
         <v>38</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>279</v>
-      </c>
       <c r="N61" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O61" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -8691,7 +8687,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8703,7 +8699,7 @@
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
@@ -8712,7 +8708,7 @@
         <v>38</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>38</v>
@@ -8723,10 +8719,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8737,7 +8733,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8749,13 +8745,13 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8806,19 +8802,19 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
@@ -8827,7 +8823,7 @@
         <v>38</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>38</v>
@@ -8838,10 +8834,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8852,7 +8848,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8864,13 +8860,13 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8921,19 +8917,19 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
@@ -8942,7 +8938,7 @@
         <v>38</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>38</v>
@@ -8953,10 +8949,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8979,13 +8975,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9012,14 +9008,14 @@
         <v>38</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>38</v>
       </c>
@@ -9036,7 +9032,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9048,7 +9044,7 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
@@ -9057,7 +9053,7 @@
         <v>38</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>38</v>
@@ -9068,10 +9064,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9079,10 +9075,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>38</v>
@@ -9094,16 +9090,16 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9153,19 +9149,19 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
@@ -9174,7 +9170,7 @@
         <v>38</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>38</v>
@@ -9185,10 +9181,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9199,7 +9195,7 @@
         <v>39</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9211,16 +9207,16 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="N66" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9270,19 +9266,19 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>38</v>
@@ -9291,7 +9287,7 @@
         <v>38</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>38</v>
